--- a/grades.xlsx
+++ b/grades.xlsx
@@ -448,10 +448,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2023001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>2023001</v>
       </c>
       <c r="B2" t="n">
         <v>85</v>
@@ -464,10 +462,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2023002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2023002</v>
       </c>
       <c r="B3" t="n">
         <v>88</v>
@@ -480,10 +476,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2023003</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2023003</v>
       </c>
       <c r="B4" t="n">
         <v>70</v>
